--- a/xlsx/Smart Fortwo_intext.xlsx
+++ b/xlsx/Smart Fortwo_intext.xlsx
@@ -29,19 +29,19 @@
     <t>Smart (automobile)</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Smart Fortwo</t>
+    <t>政策_政策_混合动力车辆_Smart Fortwo</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E8%BB%8A</t>
   </si>
   <si>
-    <t>都市車</t>
+    <t>都市车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%BA%A5%E7%89%B9</t>
   </si>
   <si>
-    <t>司麥特</t>
+    <t>司麦特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A7%86%E5%8B%92</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%B0%8F%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>極小型車</t>
+    <t>极小型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E4%BD%8D</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8A%E8%BB%8A</t>
   </si>
   <si>
-    <t>泊車</t>
+    <t>泊车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E5%BC%95%E6%93%8E</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>馬力</t>
+    <t>马力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%BA%BA</t>
   </si>
   <si>
-    <t>台灣人</t>
+    <t>台湾人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%B0%A3%E9%87%8F</t>
   </si>
   <si>
-    <t>排氣量</t>
+    <t>排气量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%A2%9E%E5%A3%93%E5%99%A8</t>
   </si>
   <si>
-    <t>渦輪增壓器</t>
+    <t>涡轮增压器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>輕型車</t>
+    <t>轻型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%BA%A5%E7%89%B9Fortwo</t>
